--- a/data/cepea-consulta-milho.reparado.xlsx
+++ b/data/cepea-consulta-milho.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3C83CFF-ED3E-4FE7-9DA7-5DED751E8F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72666040-9EF0-4C90-87BD-31E73C6C7C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1077">
   <si>
     <t>Milho | INDICADOR DO MILHO ESALQ/BM&amp;FBOVESPA</t>
   </si>
@@ -3223,6 +3223,45 @@
   </si>
   <si>
     <t>11,89</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>64,29</t>
+  </si>
+  <si>
+    <t>11,86</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>11,82</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>64,53</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>64,58</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>64,70</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>64,78</t>
   </si>
 </sst>
 </file>
@@ -3674,10 +3713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420:C420"/>
+      <selection activeCell="A426" sqref="A426:C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8318,6 +8357,72 @@
       </c>
       <c r="C420" s="3" t="s">
         <v>1063</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-milho.reparado.xlsx
+++ b/data/cepea-consulta-milho.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B8203F4-A637-4F04-8EFB-D567A055B8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C453328A-6708-48D0-A7F9-5CA840695484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1100">
   <si>
     <t>Milho | INDICADOR DO MILHO ESALQ/BM&amp;FBOVESPA</t>
   </si>
@@ -3295,6 +3295,42 @@
   </si>
   <si>
     <t>65,03</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>65,08</t>
+  </si>
+  <si>
+    <t>12,24</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>65,19</t>
+  </si>
+  <si>
+    <t>12,30</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>65,36</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>65,33</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>65,32</t>
   </si>
 </sst>
 </file>
@@ -3746,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J431"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:C431"/>
+      <selection activeCell="A436" sqref="A436:C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8511,6 +8547,61 @@
       </c>
       <c r="C431" s="3" t="s">
         <v>627</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-milho.reparado.xlsx
+++ b/data/cepea-consulta-milho.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6F0ACA-9D28-4753-AB14-168C31EFD89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFBCCA9-2A09-4AF3-BF76-C2AE0BBDEDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
